--- a/Klasar.xlsx
+++ b/Klasar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>scientist.h</t>
   </si>
@@ -60,13 +60,127 @@
   </si>
   <si>
     <t>ScientistUI.cpp</t>
+  </si>
+  <si>
+    <t>Viðmótslag - UI</t>
+  </si>
+  <si>
+    <t>Millilag - business layer (logic)</t>
+  </si>
+  <si>
+    <t>Gagnalag - Data storage layer</t>
+  </si>
+  <si>
+    <t>Entity klasi</t>
+  </si>
+  <si>
+    <t>Sér um samskipti við notanda, taka við gögnum, birta gögn, lágmarks lógík.</t>
+  </si>
+  <si>
+    <t>Stundum kallað virknilag.  Controller klasar og klasar fyrir vinnslur, aðgerðir og lógík.  Klasar á þessu lagi ekki mikið með gögn, member breytur, properties né get og set föll.</t>
+  </si>
+  <si>
+    <t>Gagnageymslurnar (repository), gagnagrunnar, gagnaskrár osfrv.)</t>
+  </si>
+  <si>
+    <t>Entity klasar - Poco classes</t>
+  </si>
+  <si>
+    <t>Eiga heima á öllum layerum, þar sem þeirra hlutverk er að hendast á milli layera, hægt að búa til tilvikið hvar sem er, þ.e. hvaða layeri sem er.  Layerin nota s.s. instance af svona entity klösum til að tala sama og þessir innihalda gögnin og oft líka aðgerðir.</t>
+  </si>
+  <si>
+    <t>Public:</t>
+  </si>
+  <si>
+    <t>ScientistUI();</t>
+  </si>
+  <si>
+    <t>void start();</t>
+  </si>
+  <si>
+    <t>Private:</t>
+  </si>
+  <si>
+    <t>ScientistService scientistService;</t>
+  </si>
+  <si>
+    <t>#include &lt;string&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;</t>
+  </si>
+  <si>
+    <t>#include "scientistservice.h"</t>
+  </si>
+  <si>
+    <t>#include "scientist.h"</t>
+  </si>
+  <si>
+    <t>#include "scientistrepository.h"</t>
+  </si>
+  <si>
+    <t>ScientistService();</t>
+  </si>
+  <si>
+    <t>void add(Scientist s);</t>
+  </si>
+  <si>
+    <t>#include &lt;vector&gt;</t>
+  </si>
+  <si>
+    <t>ScientistRepository();</t>
+  </si>
+  <si>
+    <t>vector&lt;Scientist&gt; scientistVector;</t>
+  </si>
+  <si>
+    <t>#include &lt;fstream&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;list&gt;</t>
+  </si>
+  <si>
+    <t>using namespace std;</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Scientist();</t>
+  </si>
+  <si>
+    <t>Scientist(string inName, string inSex, string inBday, string inDday);</t>
+  </si>
+  <si>
+    <t>string name;</t>
+  </si>
+  <si>
+    <t>string sex;</t>
+  </si>
+  <si>
+    <t>string bday;</t>
+  </si>
+  <si>
+    <t>string dday;</t>
+  </si>
+  <si>
+    <t>#include "scientistui.h"</t>
+  </si>
+  <si>
+    <t>ScientistUI ui = ScientistUI();</t>
+  </si>
+  <si>
+    <t>ui.start();</t>
+  </si>
+  <si>
+    <t>main.cpp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +196,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +231,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,11 +259,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,58 +555,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="19.77734375" style="3" customWidth="1"/>
+    <col min="1" max="4" width="55.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Klasar.xlsx
+++ b/Klasar.xlsx
@@ -558,12 +558,15 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="55.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
